--- a/doc/04_DB定義書_C3(最終変更0609).xlsx
+++ b/doc/04_DB定義書_C3(最終変更0609).xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\6月配布物 演習\6月配布物\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{166936FF-61C0-416C-89B6-4AD225D1D7D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDCC44AC-DBB8-41A7-83FC-770CE6B291DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" firstSheet="1" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11850" yWindow="885" windowWidth="8355" windowHeight="9090" firstSheet="7" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -1287,7 +1287,7 @@
   </sheetPr>
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
+    <sheetView topLeftCell="D5" workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
@@ -1700,7 +1700,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
@@ -3848,7 +3848,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FF031F1-A0CE-494C-98C8-A7278C6A2F15}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView zoomScale="102" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="102" workbookViewId="0">
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
@@ -5518,8 +5518,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{694FDE33-A944-4EAB-ABCA-ED99A4BF6991}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="102" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" topLeftCell="D7" zoomScale="102" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5653,7 +5653,7 @@
         <v>93</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="E10" s="12">
         <v>4</v>
@@ -5671,7 +5671,7 @@
       <c r="J10" s="12"/>
       <c r="L10" s="9" t="str">
         <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
-        <v>reward_id varchar (4),</v>
+        <v>reward_id int (4),</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.15">
